--- a/spreadsheet/blob_storage_security_checklist.es.xlsx
+++ b/spreadsheet/blob_storage_security_checklist.es.xlsx
@@ -1108,7 +1108,11 @@
           <t>Considere la 'Línea base de seguridad de Azure para el almacenamiento'</t>
         </is>
       </c>
-      <c r="D8" s="22" t="n"/>
+      <c r="D8" s="22" t="inlineStr">
+        <is>
+          <t>Aplicar la orientación del banco de pruebas de seguridad en la nube de Microsoft relacionado con el almacenamiento</t>
+        </is>
+      </c>
       <c r="E8" s="22" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -1206,7 +1210,7 @@
       </c>
       <c r="D10" s="22" t="inlineStr">
         <is>
-          <t>Las cuentas de almacenamiento recién creadas se crean mediante el modelo de implementación de ARM, de modo que RBAC, auditoría, etc. están habilitados. Asegúrese de que no haya cuentas de almacenamiento antiguas con el modelo clásico de deloyment en una suscripción</t>
+          <t>Las cuentas de almacenamiento recién creadas se crean mediante el modelo de implementación de ARM, de modo que RBAC, auditoría, etc. están habilitados. Asegúrese de que no haya cuentas de almacenamiento antiguas con el modelo de implementación clásica en una suscripción</t>
         </is>
       </c>
       <c r="E10" s="22" t="inlineStr">
@@ -1506,7 +1510,7 @@
       </c>
       <c r="D16" s="22" t="inlineStr">
         <is>
-          <t>Evita la eliminación accidental de una cuenta de almacenamiento, obligando al usuario a eliminar primero el bloqueo de eliminación, eliminación previa</t>
+          <t>Evita la eliminación accidental de una cuenta de almacenamiento, obligando al usuario a quitar primero el bloqueo de eliminación, antes de la eliminación</t>
         </is>
       </c>
       <c r="E16" s="22" t="inlineStr">
@@ -1801,7 +1805,7 @@
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Mínimo privilegio en los permisos de IaM</t>
+          <t>Privilegios mínimos en permisos de IaM</t>
         </is>
       </c>
       <c r="D22" s="22" t="inlineStr">
@@ -1947,10 +1951,14 @@
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar Azure Monitor para realizar un seguimiento de quién y cuándo enumera o ve las claves de la cuenta de almacenamiento.</t>
-        </is>
-      </c>
-      <c r="D25" s="22" t="n"/>
+          <t>Considere la posibilidad de usar Azure Monitor para auditar las operaciones del plano de control en la cuenta de almacenamiento</t>
+        </is>
+      </c>
+      <c r="D25" s="22" t="inlineStr">
+        <is>
+          <t>Utilice los datos del registro de actividad para identificar "cuándo", "quién", "qué" y "cómo" se está viendo o cambiando la seguridad de su cuenta de almacenamiento (es decir, claves de cuenta de almacenamiento, directivas de acceso, etc.).</t>
+        </is>
+      </c>
       <c r="E25" s="22" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -1962,7 +1970,11 @@
         </is>
       </c>
       <c r="G25" s="22" t="n"/>
-      <c r="H25" s="16" t="n"/>
+      <c r="H25" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/blobs/blob-storage-monitoring-scenarios#audit-account-activity</t>
+        </is>
+      </c>
       <c r="I25" s="16" t="n"/>
       <c r="J25" s="23" t="n"/>
       <c r="K25" s="23" t="n"/>
@@ -2187,7 +2199,7 @@
       </c>
       <c r="D30" s="22" t="inlineStr">
         <is>
-          <t>Lo ideal es que la aplicación use una identidad administrada para autenticarse en Azure Storage. Si eso no es posible, considere la posibilidad de tener la credencial de almacenamiento (cadena de conexión, clave de cuenta de almacenamiento, SAS, credencial principal de servicio) en Azure KeyVault o un servicio equivalente.</t>
+          <t>Lo ideal es que la aplicación use una identidad administrada para autenticarse en Azure Storage. Si eso no es posible, considere la posibilidad de tener la credencial de almacenamiento (cadena de conexión, clave de cuenta de almacenamiento, SAS, credencial de entidad de servicio) en Azure KeyVault o un servicio equivalente.</t>
         </is>
       </c>
       <c r="E30" s="22" t="inlineStr">
@@ -11856,7 +11868,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gestión de identidades y accesos</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -11903,7 +11915,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -11940,7 +11952,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Continuidad del negocio y recuperación ante desastres</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -11972,7 +11984,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -12004,7 +12016,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Automatización de aplicaciones y DevOps</t>
+          <t>Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -12031,7 +12043,7 @@
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">

--- a/spreadsheet/blob_storage_security_checklist.es.xlsx
+++ b/spreadsheet/blob_storage_security_checklist.es.xlsx
@@ -1150,22 +1150,18 @@
       </c>
       <c r="B9" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>CI/CD</t>
         </is>
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar puntos de conexión privados para Azure Storage</t>
-        </is>
-      </c>
-      <c r="D9" s="22" t="inlineStr">
-        <is>
-          <t>De forma predeterminada, Azure Storage tiene una dirección IP pública y es accesible desde Internet. Los puntos de conexión privados permiten exponer de forma segura Azure Storage solo a aquellos recursos de Azure Compute que necesitan acceso, eliminando así la exposición a la Internet pública</t>
-        </is>
-      </c>
+          <t>Considere la posibilidad de configurar el repositorio de código fuente de la aplicación para detectar cadenas de conexión protegidas y claves de cuenta de almacenamiento.</t>
+        </is>
+      </c>
+      <c r="D9" s="22" t="n"/>
       <c r="E9" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1176,7 +1172,7 @@
       <c r="G9" s="22" t="n"/>
       <c r="H9" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-private-endpoints</t>
+          <t>https://microsoft.github.io/code-with-engineering-playbook/continuous-integration/dev-sec-ops/secret-management/recipes/detect-secrets-ado/</t>
         </is>
       </c>
       <c r="I9" s="16" t="n"/>
@@ -1184,7 +1180,7 @@
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>f42d78e7-9d17-4a73-a22a-5a67e7a8ed4b</t>
+          <t>028a71ff-e1ce-415d-b3f0-d5e772d41e36</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1200,17 +1196,17 @@
       </c>
       <c r="B10" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Confidencialidad</t>
         </is>
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que las cuentas de almacenamiento más antiguas no usen el "modelo de implementación clásica"</t>
+          <t>Deshabilitar 'eliminación temporal' para blobs</t>
         </is>
       </c>
       <c r="D10" s="22" t="inlineStr">
         <is>
-          <t>Las cuentas de almacenamiento recién creadas se crean mediante el modelo de implementación de ARM, de modo que RBAC, auditoría, etc. están habilitados. Asegúrese de que no haya cuentas de almacenamiento antiguas con el modelo de implementación clásica en una suscripción</t>
+          <t xml:space="preserve">Considere la posibilidad de deshabilitar selectivamente la "eliminación temporal" para determinados contenedores de blobs, por ejemplo, si la aplicación debe garantizar que la información eliminada se elimine inmediatamente, por ejemplo, por motivos de confidencialidad, privacidad o cumplimiento. </t>
         </is>
       </c>
       <c r="E10" s="22" t="inlineStr">
@@ -1226,7 +1222,7 @@
       <c r="G10" s="22" t="n"/>
       <c r="H10" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/migration-classic-resource-manager-overview#migration-of-storage-accounts</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/soft-delete-blob-enable</t>
         </is>
       </c>
       <c r="I10" s="16" t="n"/>
@@ -1234,7 +1230,7 @@
       <c r="K10" s="24" t="n"/>
       <c r="L10" s="26" t="inlineStr">
         <is>
-          <t>30e37c3e-2971-41b2-963c-eee079b598de</t>
+          <t>3f1d5e87-2e52-4e36-81cc-58b4a4b1510e</t>
         </is>
       </c>
       <c r="M10" s="26" t="n"/>
@@ -1250,22 +1246,22 @@
       </c>
       <c r="B11" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Confidencialidad</t>
         </is>
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Habilitar Microsoft Defender para todas tus cuentas de almacenamiento</t>
+          <t>Deshabilitar 'eliminación temporal' para contenedores</t>
         </is>
       </c>
       <c r="D11" s="22" t="inlineStr">
         <is>
-          <t>Aprovecha Microsoft Defender para obtener información sobre actividades sospechosas y configuraciones incorrectas.</t>
+          <t xml:space="preserve">Considere la posibilidad de deshabilitar selectivamente la "eliminación temporal" para determinados contenedores de blobs, por ejemplo, si la aplicación debe garantizar que la información eliminada se elimine inmediatamente, por ejemplo, por motivos de confidencialidad, privacidad o cumplimiento. </t>
         </is>
       </c>
       <c r="E11" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1276,7 +1272,7 @@
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/azure-defender-storage-configure</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/soft-delete-container-enable</t>
         </is>
       </c>
       <c r="I11" s="16" t="n"/>
@@ -1284,7 +1280,7 @@
       <c r="K11" s="23" t="n"/>
       <c r="L11" s="26" t="inlineStr">
         <is>
-          <t>fc5972cd-4cd2-41b0-a803-7f5e6b4bfd3d</t>
+          <t>3e3453a3-c863-4964-ab65-2d6c15f51296</t>
         </is>
       </c>
       <c r="M11" s="26" t="n"/>
@@ -1300,22 +1296,22 @@
       </c>
       <c r="B12" s="22" t="inlineStr">
         <is>
-          <t>Disponibilidad de datos</t>
+          <t>Confidencialidad y cifrado</t>
         </is>
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>Habilitar 'eliminación temporal' para blobs</t>
+          <t>Determine cómo se deben cifrar los datos en reposo. Comprender el modelo de subprocesos para los datos.</t>
         </is>
       </c>
       <c r="D12" s="22" t="inlineStr">
         <is>
-          <t>El mecanismo de eliminación temporal permite recuperar blobs eliminados accidentalmente.</t>
+          <t>Los datos en reposo siempre se cifran en el lado del servidor y, además, también pueden cifrarse en el lado del cliente. El cifrado del lado del servidor puede ocurrir utilizando una clave administrada por la plataforma (predeterminada) o una clave administrada por el cliente. El cifrado del lado cliente puede realizarse haciendo que el cliente proporcione una clave de cifrado y descifrado por blob al almacenamiento de Azure o controlando completamente el cifrado en el lado cliente. por lo tanto, no depende en absoluto de Azure Storage para las garantías de confidencialidad.</t>
         </is>
       </c>
       <c r="E12" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1326,7 +1322,7 @@
       <c r="G12" s="22" t="n"/>
       <c r="H12" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/soft-delete-blob-overview</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
         </is>
       </c>
       <c r="I12" s="16" t="n"/>
@@ -1334,7 +1330,7 @@
       <c r="K12" s="23" t="n"/>
       <c r="L12" s="26" t="inlineStr">
         <is>
-          <t>503547c1-447e-4c66-828a-7100f1ce16dd</t>
+          <t>3d90cae2-cc88-4137-86f7-c0cbafe61464</t>
         </is>
       </c>
       <c r="M12" s="26" t="n"/>
@@ -1350,19 +1346,15 @@
       </c>
       <c r="B13" s="22" t="inlineStr">
         <is>
-          <t>Confidencialidad</t>
+          <t>Confidencialidad y cifrado</t>
         </is>
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>Deshabilitar 'eliminación temporal' para blobs</t>
-        </is>
-      </c>
-      <c r="D13" s="22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Considere la posibilidad de deshabilitar selectivamente la "eliminación temporal" para determinados contenedores de blobs, por ejemplo, si la aplicación debe garantizar que la información eliminada se elimine inmediatamente, por ejemplo, por motivos de confidencialidad, privacidad o cumplimiento. </t>
-        </is>
-      </c>
+          <t>Determine qué cifrado de plataforma se debe utilizar.</t>
+        </is>
+      </c>
+      <c r="D13" s="22" t="n"/>
       <c r="E13" s="22" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -1376,7 +1368,7 @@
       <c r="G13" s="22" t="n"/>
       <c r="H13" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/soft-delete-blob-enable</t>
+          <t>https://learn.microsoft.com/azure/storage/common/customer-managed-keys-overview?toc=%2Fazure%2Fstorage%2Fblobs%2Ftoc.json&amp;bc=%2Fazure%2Fstorage%2Fblobs%2Fbreadcrumb%2Ftoc.json</t>
         </is>
       </c>
       <c r="I13" s="16" t="n"/>
@@ -1384,7 +1376,7 @@
       <c r="K13" s="23" t="n"/>
       <c r="L13" s="26" t="inlineStr">
         <is>
-          <t>3f1d5e87-2e52-4e36-81cc-58b4a4b1510e</t>
+          <t>8dd457e9-2713-48b8-8110-2cac6eae01e6</t>
         </is>
       </c>
       <c r="M13" s="26" t="n"/>
@@ -1400,22 +1392,18 @@
       </c>
       <c r="B14" s="22" t="inlineStr">
         <is>
-          <t>Disponibilidad de datos</t>
+          <t>Confidencialidad y cifrado</t>
         </is>
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t>Habilitar 'eliminación temporal' para contenedores</t>
-        </is>
-      </c>
-      <c r="D14" s="22" t="inlineStr">
-        <is>
-          <t>La eliminación temporal para contenedores le permite recuperar un contenedor después de que se haya eliminado, por ejemplo, recuperarse de una operación de eliminación accidental.</t>
-        </is>
-      </c>
+          <t>Determine qué / si se debe usar el cifrado del lado del cliente.</t>
+        </is>
+      </c>
+      <c r="D14" s="22" t="n"/>
       <c r="E14" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1426,7 +1414,7 @@
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/soft-delete-container-overview</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/encryption-customer-provided-keys</t>
         </is>
       </c>
       <c r="I14" s="16" t="n"/>
@@ -1434,7 +1422,7 @@
       <c r="K14" s="23" t="n"/>
       <c r="L14" s="26" t="inlineStr">
         <is>
-          <t>43a58a9c-2289-4c3d-9b57-d0c655462f2a</t>
+          <t>e842e52f-4721-4d92-ac1b-1cd521e54a29</t>
         </is>
       </c>
       <c r="M14" s="26" t="n"/>
@@ -1450,17 +1438,17 @@
       </c>
       <c r="B15" s="22" t="inlineStr">
         <is>
-          <t>Confidencialidad</t>
+          <t>Disponibilidad de datos</t>
         </is>
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>Deshabilitar 'eliminación temporal' para contenedores</t>
+          <t>Habilitar 'eliminación temporal' para blobs</t>
         </is>
       </c>
       <c r="D15" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Considere la posibilidad de deshabilitar selectivamente la "eliminación temporal" para determinados contenedores de blobs, por ejemplo, si la aplicación debe garantizar que la información eliminada se elimine inmediatamente, por ejemplo, por motivos de confidencialidad, privacidad o cumplimiento. </t>
+          <t>El mecanismo de eliminación temporal permite recuperar blobs eliminados accidentalmente.</t>
         </is>
       </c>
       <c r="E15" s="22" t="inlineStr">
@@ -1476,7 +1464,7 @@
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/soft-delete-container-enable</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/soft-delete-blob-overview</t>
         </is>
       </c>
       <c r="I15" s="16" t="n"/>
@@ -1484,7 +1472,7 @@
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>3e3453a3-c863-4964-ab65-2d6c15f51296</t>
+          <t>503547c1-447e-4c66-828a-7100f1ce16dd</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1505,12 +1493,12 @@
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>Habilitar bloqueos de recursos en cuentas de almacenamiento</t>
+          <t>Habilitar 'eliminación temporal' para contenedores</t>
         </is>
       </c>
       <c r="D16" s="22" t="inlineStr">
         <is>
-          <t>Evita la eliminación accidental de una cuenta de almacenamiento, obligando al usuario a quitar primero el bloqueo de eliminación, antes de la eliminación</t>
+          <t>La eliminación temporal para contenedores le permite recuperar un contenedor después de que se haya eliminado, por ejemplo, recuperarse de una operación de eliminación accidental.</t>
         </is>
       </c>
       <c r="E16" s="22" t="inlineStr">
@@ -1526,7 +1514,7 @@
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/lock-account-resource</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/soft-delete-container-overview</t>
         </is>
       </c>
       <c r="I16" s="16" t="n"/>
@@ -1534,7 +1522,7 @@
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>5398e6de-d227-4dd1-92b0-6c21d7999a64</t>
+          <t>43a58a9c-2289-4c3d-9b57-d0c655462f2a</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1550,17 +1538,17 @@
       </c>
       <c r="B17" s="22" t="inlineStr">
         <is>
-          <t>Disponibilidad de datos, cumplimiento</t>
+          <t>Disponibilidad de datos</t>
         </is>
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>Considere los blobs inmutables</t>
+          <t>Habilitar bloqueos de recursos en cuentas de almacenamiento</t>
         </is>
       </c>
       <c r="D17" s="22" t="inlineStr">
         <is>
-          <t>Considere las directivas de "retención legal" o "retención basada en tiempo" para los blobs, de modo que sea imposible eliminar el blob, el contenedor o la cuenta de almacenamiento. Tenga en cuenta que "imposible" en realidad significa "imposible"; una vez que una cuenta de almacenamiento contiene un blob inmutable, la única forma de "deshacerse" de esa cuenta de almacenamiento es cancelando la suscripción de Azure.</t>
+          <t>Evita la eliminación accidental de una cuenta de almacenamiento, obligando al usuario a quitar primero el bloqueo de eliminación, antes de la eliminación</t>
         </is>
       </c>
       <c r="E17" s="22" t="inlineStr">
@@ -1576,7 +1564,7 @@
       <c r="G17" s="22" t="n"/>
       <c r="H17" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/immutable-storage-overview</t>
+          <t>https://learn.microsoft.com/azure/storage/common/lock-account-resource</t>
         </is>
       </c>
       <c r="I17" s="16" t="n"/>
@@ -1584,7 +1572,7 @@
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>6f4389a8-f42c-478e-98c0-6a73a22a4956</t>
+          <t>5398e6de-d227-4dd1-92b0-6c21d7999a64</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1600,17 +1588,17 @@
       </c>
       <c r="B18" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Disponibilidad de datos, cumplimiento</t>
         </is>
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>Requerir HTTPS, es decir, deshabilitar el puerto 80 en la cuenta de almacenamiento</t>
+          <t>Considere los blobs inmutables</t>
         </is>
       </c>
       <c r="D18" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Considere deshabilitar el acceso HTTP/80 desprotegido a la cuenta de almacenamiento, de modo que todas las transferencias de datos estén cifradas, protegidas por integridad y el servidor esté autenticado. </t>
+          <t>Considere las directivas de "retención legal" o "retención basada en tiempo" para los blobs, de modo que sea imposible eliminar el blob, el contenedor o la cuenta de almacenamiento. Tenga en cuenta que "imposible" en realidad significa "imposible"; una vez que una cuenta de almacenamiento contiene un blob inmutable, la única forma de "deshacerse" de esa cuenta de almacenamiento es cancelando la suscripción de Azure.</t>
         </is>
       </c>
       <c r="E18" s="22" t="inlineStr">
@@ -1626,7 +1614,7 @@
       <c r="G18" s="22" t="n"/>
       <c r="H18" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/immutable-storage-overview</t>
         </is>
       </c>
       <c r="I18" s="16" t="n"/>
@@ -1634,7 +1622,7 @@
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>e7a8dc4a-20e2-47c3-b297-11b1352beee0</t>
+          <t>6f4389a8-f42c-478e-98c0-6a73a22a4956</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1650,22 +1638,22 @@
       </c>
       <c r="B19" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t>Al aplicar HTTPS (deshabilitar HTTP), compruebe que no usa dominios personalizados (CNAME) para la cuenta de almacenamiento.</t>
+          <t>Asegúrese de que las cuentas de almacenamiento más antiguas no usen el "modelo de implementación clásica"</t>
         </is>
       </c>
       <c r="D19" s="22" t="inlineStr">
         <is>
-          <t>Al configurar un dominio personalizado (nombre de host) en una cuenta de almacenamiento, compruebe si necesita TLS/HTTPS; si es así, es posible que tenga que poner Azure CDN delante de su cuenta de almacenamiento.</t>
+          <t>Las cuentas de almacenamiento recién creadas se crean mediante el modelo de implementación de ARM, de modo que RBAC, auditoría, etc. están habilitados. Asegúrese de que no haya cuentas de almacenamiento antiguas con el modelo de implementación clásica en una suscripción</t>
         </is>
       </c>
       <c r="E19" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1676,7 +1664,7 @@
       <c r="G19" s="22" t="n"/>
       <c r="H19" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/storage-custom-domain-name</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/migration-classic-resource-manager-overview#migration-of-storage-accounts</t>
         </is>
       </c>
       <c r="I19" s="16" t="n"/>
@@ -1684,7 +1672,7 @@
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>79b588de-fc49-472c-b3cd-21bf77036e5e</t>
+          <t>30e37c3e-2971-41b2-963c-eee079b598de</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1700,22 +1688,22 @@
       </c>
       <c r="B20" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>Limitar los tokens de firma de acceso compartido (SAS) solo a las conexiones HTTPS</t>
+          <t>Habilitar Microsoft Defender para todas tus cuentas de almacenamiento</t>
         </is>
       </c>
       <c r="D20" s="22" t="inlineStr">
         <is>
-          <t>Requerir HTTPS cuando un cliente usa un token SAS para obtener acceso a los datos de blobs ayuda a minimizar el riesgo de pérdida de credenciales.</t>
+          <t>Aprovecha Microsoft Defender para obtener información sobre actividades sospechosas y configuraciones incorrectas.</t>
         </is>
       </c>
       <c r="E20" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1726,7 +1714,7 @@
       <c r="G20" s="22" t="n"/>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-sas-overview</t>
+          <t>https://learn.microsoft.com/azure/storage/common/azure-defender-storage-configure</t>
         </is>
       </c>
       <c r="I20" s="16" t="n"/>
@@ -1734,7 +1722,7 @@
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>6b4bed3d-5035-447c-8347-dc56028a71ff</t>
+          <t>fc5972cd-4cd2-41b0-a803-7f5e6b4bfd3d</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1946,22 +1934,22 @@
       </c>
       <c r="B25" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Gestión de identidades y accesos</t>
         </is>
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar Azure Monitor para auditar las operaciones del plano de control en la cuenta de almacenamiento</t>
+          <t>Al usar claves de cuenta de almacenamiento, considere habilitar una "directiva de caducidad de claves"</t>
         </is>
       </c>
       <c r="D25" s="22" t="inlineStr">
         <is>
-          <t>Utilice los datos del registro de actividad para identificar "cuándo", "quién", "qué" y "cómo" se está viendo o cambiando la seguridad de su cuenta de almacenamiento (es decir, claves de cuenta de almacenamiento, directivas de acceso, etc.).</t>
+          <t>Una directiva de caducidad de claves le permite establecer un recordatorio para la rotación de las claves de acceso de la cuenta. El aviso se muestra si ha transcurrido el intervalo especificado y las teclas aún no se han girado.</t>
         </is>
       </c>
       <c r="E25" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1972,7 +1960,7 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/blob-storage-monitoring-scenarios#audit-account-activity</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-account-keys-manage?tabs=azure-portal#create-a-key-expiration-policy</t>
         </is>
       </c>
       <c r="I25" s="16" t="n"/>
@@ -1980,7 +1968,7 @@
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>d7999a64-6f43-489a-af42-c78e78c06a73</t>
+          <t>a22a4956-e7a8-4dc4-a20e-27c3e29711b1</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -2001,12 +1989,12 @@
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>Al usar claves de cuenta de almacenamiento, considere habilitar una "directiva de caducidad de claves"</t>
+          <t>Considere la posibilidad de configurar una directiva de expiración de SAS</t>
         </is>
       </c>
       <c r="D26" s="22" t="inlineStr">
         <is>
-          <t>Una directiva de caducidad de claves le permite establecer un recordatorio para la rotación de las claves de acceso de la cuenta. El aviso se muestra si ha transcurrido el intervalo especificado y las teclas aún no se han girado.</t>
+          <t>Una directiva de expiración de SAS especifica un intervalo recomendado durante el cual la SAS es válida. Las directivas de caducidad de SAS se aplican a una SAS de servicio o a una SAS de cuenta. Cuando un usuario genera SAS de servicio o un SAS de cuenta con un intervalo de validez mayor que el intervalo recomendado, verá una advertencia.</t>
         </is>
       </c>
       <c r="E26" s="22" t="inlineStr">
@@ -2022,7 +2010,7 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-account-keys-manage?tabs=azure-portal#create-a-key-expiration-policy</t>
+          <t>https://learn.microsoft.com/azure/storage/common/sas-expiration-policy</t>
         </is>
       </c>
       <c r="I26" s="16" t="n"/>
@@ -2030,7 +2018,7 @@
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>a22a4956-e7a8-4dc4-a20e-27c3e29711b1</t>
+          <t>352beee0-79b5-488d-bfc4-972cd3cd21bf</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -2051,12 +2039,12 @@
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de configurar una directiva de expiración de SAS</t>
+          <t>Considere la posibilidad de vincular SAS a una directiva de acceso almacenado</t>
         </is>
       </c>
       <c r="D27" s="22" t="inlineStr">
         <is>
-          <t>Una directiva de expiración de SAS especifica un intervalo recomendado durante el cual la SAS es válida. Las directivas de caducidad de SAS se aplican a una SAS de servicio o a una SAS de cuenta. Cuando un usuario genera SAS de servicio o un SAS de cuenta con un intervalo de validez mayor que el intervalo recomendado, verá una advertencia.</t>
+          <t xml:space="preserve">Las directivas de acceso almacenado le ofrecen la opción de revocar los permisos de una SAS de servicio sin tener que volver a generar las claves de la cuenta de almacenamiento. </t>
         </is>
       </c>
       <c r="E27" s="22" t="inlineStr">
@@ -2072,14 +2060,14 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/sas-expiration-policy</t>
+          <t>https://learn.microsoft.com/rest/api/storageservices/define-stored-access-policy</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>352beee0-79b5-488d-bfc4-972cd3cd21bf</t>
+          <t>77036e5e-6b4b-4ed3-b503-547c1347dc56</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2100,17 +2088,17 @@
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de vincular SAS a una directiva de acceso almacenado</t>
+          <t>Considere la posibilidad de almacenar cadenas de conexión en Azure KeyVault (en escenarios donde las identidades administradas no son posibles)</t>
         </is>
       </c>
       <c r="D28" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Las directivas de acceso almacenado le ofrecen la opción de revocar los permisos de una SAS de servicio sin tener que volver a generar las claves de la cuenta de almacenamiento. </t>
+          <t>Lo ideal es que la aplicación use una identidad administrada para autenticarse en Azure Storage. Si eso no es posible, considere la posibilidad de tener la credencial de almacenamiento (cadena de conexión, clave de cuenta de almacenamiento, SAS, credencial de entidad de servicio) en Azure KeyVault o un servicio equivalente.</t>
         </is>
       </c>
       <c r="E28" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2121,14 +2109,14 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/rest/api/storageservices/define-stored-access-policy</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/security/design-storage-keys</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>77036e5e-6b4b-4ed3-b503-547c1347dc56</t>
+          <t>11cc57b4-a4b1-4410-b439-58a8c2289b3d</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2144,18 +2132,22 @@
       </c>
       <c r="B29" s="22" t="inlineStr">
         <is>
-          <t>CI/CD</t>
+          <t>Gestión de identidades y accesos</t>
         </is>
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de configurar el repositorio de código fuente de la aplicación para detectar cadenas de conexión protegidas y claves de cuenta de almacenamiento.</t>
-        </is>
-      </c>
-      <c r="D29" s="22" t="n"/>
+          <t>Esforzarse por períodos de validez cortos para SAS ad-hoc</t>
+        </is>
+      </c>
+      <c r="D29" s="22" t="inlineStr">
+        <is>
+          <t>Utilice tiempos de caducidad a corto plazo en una SAS de servicio SAS ad hoc o SAS de cuenta. De esta manera, incluso si un SAS se ve comprometido, es válido solo por un corto tiempo. Esta práctica es especialmente importante si no puede hacer referencia a una directiva de acceso almacenado. Los tiempos de expiración a corto plazo también limitan la cantidad de datos que se pueden escribir en un blob al limitar el tiempo disponible para cargarlo.</t>
+        </is>
+      </c>
       <c r="E29" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2166,14 +2158,14 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://microsoft.github.io/code-with-engineering-playbook/continuous-integration/dev-sec-ops/secret-management/recipes/detect-secrets-ado/</t>
+          <t>https://learn.microsoft.com/rest/api/storageservices/delegate-access-with-shared-access-signature</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>028a71ff-e1ce-415d-b3f0-d5e772d41e36</t>
+          <t>27138b82-1102-4cac-9eae-01e6e842e52f</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2194,17 +2186,17 @@
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de almacenar cadenas de conexión en Azure KeyVault (en escenarios donde las identidades administradas no son posibles)</t>
+          <t>Aplicar un ámbito estrecho a una SAS</t>
         </is>
       </c>
       <c r="D30" s="22" t="inlineStr">
         <is>
-          <t>Lo ideal es que la aplicación use una identidad administrada para autenticarse en Azure Storage. Si eso no es posible, considere la posibilidad de tener la credencial de almacenamiento (cadena de conexión, clave de cuenta de almacenamiento, SAS, credencial de entidad de servicio) en Azure KeyVault o un servicio equivalente.</t>
+          <t>Al crear una SAS, sea lo más específico y restrictivo posible. Prefiera una SAS para un solo recurso y operación en lugar de una SAS que brinda un acceso mucho más amplio.</t>
         </is>
       </c>
       <c r="E30" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2215,14 +2207,14 @@
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/security/design-storage-keys</t>
+          <t>https://learn.microsoft.com/rest/api/storageservices/delegate-access-with-shared-access-signature</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>11cc57b4-a4b1-4410-b439-58a8c2289b3d</t>
+          <t>4721d928-c1b1-4cd5-81e5-4a29a9de399c</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2243,17 +2235,17 @@
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>Esforzarse por períodos de validez cortos para SAS ad-hoc</t>
+          <t>Considere la posibilidad de definir el ámbito de SAS a una dirección IP de cliente específica, siempre que sea posible</t>
         </is>
       </c>
       <c r="D31" s="22" t="inlineStr">
         <is>
-          <t>Utilice tiempos de caducidad a corto plazo en una SAS de servicio SAS ad hoc o SAS de cuenta. De esta manera, incluso si un SAS se ve comprometido, es válido solo por un corto tiempo. Esta práctica es especialmente importante si no puede hacer referencia a una directiva de acceso almacenado. Los tiempos de expiración a corto plazo también limitan la cantidad de datos que se pueden escribir en un blob al limitar el tiempo disponible para cargarlo.</t>
+          <t xml:space="preserve">Una SAS puede incluir parámetros en los que las direcciones IP del cliente o los intervalos de direcciones están autorizados a solicitar un recurso mediante la SAS. </t>
         </is>
       </c>
       <c r="E31" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2264,14 +2256,14 @@
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/rest/api/storageservices/delegate-access-with-shared-access-signature</t>
+          <t>https://learn.microsoft.com/rest/api/storageservices/create-account-sas</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>27138b82-1102-4cac-9eae-01e6e842e52f</t>
+          <t>fd7b28dc-9355-4562-82bf-e4564b0d834a</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2292,17 +2284,17 @@
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Aplicar un ámbito estrecho a una SAS</t>
+          <t xml:space="preserve">Considere la posibilidad de verificar los datos cargados, después de que los clientes usaran un SAS para cargar un archivo. </t>
         </is>
       </c>
       <c r="D32" s="22" t="inlineStr">
         <is>
-          <t>Al crear una SAS, sea lo más específico y restrictivo posible. Prefiera una SAS para un solo recurso y operación en lugar de una SAS que brinda un acceso mucho más amplio.</t>
+          <t>Una SAS no puede restringir la cantidad de datos que carga un cliente; Dado el modelo de precios de la cantidad de almacenamiento a lo largo del tiempo, podría tener sentido validar si los clientes cargaron contenidos malintencionadamente grandes.</t>
         </is>
       </c>
       <c r="E32" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2311,17 +2303,13 @@
         </is>
       </c>
       <c r="G32" s="22" t="n"/>
-      <c r="H32" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/rest/api/storageservices/delegate-access-with-shared-access-signature</t>
-        </is>
-      </c>
+      <c r="H32" s="16" t="n"/>
       <c r="I32" s="16" t="n"/>
       <c r="J32" s="23" t="n"/>
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>4721d928-c1b1-4cd5-81e5-4a29a9de399c</t>
+          <t>348b263e-6dd6-4051-8a36-498f6dbad38e</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2342,17 +2330,17 @@
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de definir el ámbito de SAS a una dirección IP de cliente específica, siempre que sea posible</t>
+          <t>SFTP: Limite la cantidad de "usuarios locales" para el acceso SFTP y audite si el acceso es necesario a lo largo del tiempo.</t>
         </is>
       </c>
       <c r="D33" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Una SAS puede incluir parámetros en los que las direcciones IP del cliente o los intervalos de direcciones están autorizados a solicitar un recurso mediante la SAS. </t>
+          <t>Al acceder al almacenamiento de blobs a través de SFTP mediante una "cuenta de usuario local", no se aplican los controles RBAC "habituales". El acceso a blobs a través de NFS o REST puede ser más restrictivo que el acceso SFTP. Desafortunadamente, a principios de 2023, los usuarios locales son la única forma de administración de identidades que actualmente se admite para el punto de enlace SFTP</t>
         </is>
       </c>
       <c r="E33" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2363,7 +2351,7 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/rest/api/storageservices/create-account-sas</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/secure-file-transfer-protocol-support#sftp-permission-model</t>
         </is>
       </c>
       <c r="I33" s="16" t="n"/>
@@ -2371,7 +2359,7 @@
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>fd7b28dc-9355-4562-82bf-e4564b0d834a</t>
+          <t>ad53cc7c-e1d7-4aaa-a357-1449ab8053d8</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2392,17 +2380,13 @@
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Considere la posibilidad de verificar los datos cargados, después de que los clientes usaran un SAS para cargar un archivo. </t>
-        </is>
-      </c>
-      <c r="D34" s="22" t="inlineStr">
-        <is>
-          <t>Una SAS no puede restringir la cantidad de datos que carga un cliente; Dado el modelo de precios de la cantidad de almacenamiento a lo largo del tiempo, podría tener sentido validar si los clientes cargaron contenidos malintencionadamente grandes.</t>
-        </is>
-      </c>
+          <t>SFTP: el extremo SFTP no admite ACL similares a POSIX.</t>
+        </is>
+      </c>
+      <c r="D34" s="22" t="n"/>
       <c r="E34" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2411,13 +2395,17 @@
         </is>
       </c>
       <c r="G34" s="22" t="n"/>
-      <c r="H34" s="16" t="n"/>
+      <c r="H34" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/blobs/secure-file-transfer-protocol-known-issues#authentication-and-authorization</t>
+        </is>
+      </c>
       <c r="I34" s="16" t="n"/>
       <c r="J34" s="23" t="n"/>
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>348b263e-6dd6-4051-8a36-498f6dbad38e</t>
+          <t>9f89dc7b-33be-42a1-a27f-7b9e91be1f38</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2438,12 +2426,12 @@
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>SFTP: Limite la cantidad de "usuarios locales" para el acceso SFTP y audite si el acceso es necesario a lo largo del tiempo.</t>
+          <t xml:space="preserve">Considere si el acceso público a blobs es necesario o si se puede deshabilitar para determinadas cuentas de almacenamiento. </t>
         </is>
       </c>
       <c r="D35" s="22" t="inlineStr">
         <is>
-          <t>Al acceder al almacenamiento de blobs a través de SFTP mediante una "cuenta de usuario local", no se aplican los controles RBAC "habituales". El acceso a blobs a través de NFS o REST puede ser más restrictivo que el acceso SFTP. Desafortunadamente, a principios de 2023, los usuarios locales son la única forma de administración de identidades que actualmente se admite para el punto de enlace SFTP</t>
+          <t>Aproveche el Explorador de gráficos de recursos (recursos | donde tipo == 'microsoft.storage/storageaccounts' | donde propiedades['allowBlobPublicAccess'] == true) para buscar cuentas de almacenamiento que permitan el acceso anónimo a blobs.</t>
         </is>
       </c>
       <c r="E35" s="22" t="inlineStr">
@@ -2459,7 +2447,7 @@
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/secure-file-transfer-protocol-support#sftp-permission-model</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/anonymous-read-access-configure?tabs=portal#allow-or-disallow-public-read-access-for-a-storage-account</t>
         </is>
       </c>
       <c r="I35" s="16" t="n"/>
@@ -2467,7 +2455,7 @@
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>ad53cc7c-e1d7-4aaa-a357-1449ab8053d8</t>
+          <t>659ae558-b937-4d49-a5e1-112dbd7ba012</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2483,18 +2471,22 @@
       </c>
       <c r="B36" s="22" t="inlineStr">
         <is>
-          <t>Gestión de identidades y accesos</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>SFTP: el extremo SFTP no admite ACL similares a POSIX.</t>
-        </is>
-      </c>
-      <c r="D36" s="22" t="n"/>
+          <t>Considere la posibilidad de usar Azure Monitor para auditar las operaciones del plano de control en la cuenta de almacenamiento</t>
+        </is>
+      </c>
+      <c r="D36" s="22" t="inlineStr">
+        <is>
+          <t>Utilice los datos del registro de actividad para identificar "cuándo", "quién", "qué" y "cómo" se está viendo o cambiando la seguridad de su cuenta de almacenamiento (es decir, claves de cuenta de almacenamiento, directivas de acceso, etc.).</t>
+        </is>
+      </c>
       <c r="E36" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2505,7 +2497,7 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/secure-file-transfer-protocol-known-issues#authentication-and-authorization</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/blob-storage-monitoring-scenarios#audit-account-activity</t>
         </is>
       </c>
       <c r="I36" s="16" t="n"/>
@@ -2513,7 +2505,7 @@
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>9f89dc7b-33be-42a1-a27f-7b9e91be1f38</t>
+          <t>d7999a64-6f43-489a-af42-c78e78c06a73</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2534,12 +2526,12 @@
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>Evite políticas CORS excesivamente amplias</t>
+          <t>Considere la posibilidad de usar puntos de conexión privados para Azure Storage</t>
         </is>
       </c>
       <c r="D37" s="22" t="inlineStr">
         <is>
-          <t>El almacenamiento admite CORS (Cross-Origin Resource Sharing), es decir, una característica HTTP que permite a las aplicaciones web de un dominio diferente aflojar la directiva del mismo origen. Al habilitar CORS, mantenga CorsRules con el mínimo privilegio.</t>
+          <t>De forma predeterminada, Azure Storage tiene una dirección IP pública y es accesible desde Internet. Los puntos de conexión privados permiten exponer de forma segura Azure Storage solo a aquellos recursos de Azure Compute que necesitan acceso, eliminando así la exposición a la Internet pública</t>
         </is>
       </c>
       <c r="E37" s="22" t="inlineStr">
@@ -2555,7 +2547,7 @@
       <c r="G37" s="22" t="n"/>
       <c r="H37" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/rest/api/storageservices/cross-origin-resource-sharing--cors--support-for-the-azure-storage-services</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-private-endpoints</t>
         </is>
       </c>
       <c r="I37" s="16" t="n"/>
@@ -2563,7 +2555,7 @@
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>cef39812-bd46-43cb-aac8-ac199ebb91a3</t>
+          <t>f42d78e7-9d17-4a73-a22a-5a67e7a8ed4b</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2579,17 +2571,17 @@
       </c>
       <c r="B38" s="22" t="inlineStr">
         <is>
-          <t>Confidencialidad y cifrado</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>Determine cómo se deben cifrar los datos en reposo. Comprender el modelo de subprocesos para los datos.</t>
+          <t>Requerir HTTPS, es decir, deshabilitar el puerto 80 en la cuenta de almacenamiento</t>
         </is>
       </c>
       <c r="D38" s="22" t="inlineStr">
         <is>
-          <t>Los datos en reposo siempre se cifran en el lado del servidor y, además, también pueden cifrarse en el lado del cliente. El cifrado del lado del servidor puede ocurrir utilizando una clave administrada por la plataforma (predeterminada) o una clave administrada por el cliente. El cifrado del lado cliente puede realizarse haciendo que el cliente proporcione una clave de cifrado y descifrado por blob al almacenamiento de Azure o controlando completamente el cifrado en el lado cliente. por lo tanto, no depende en absoluto de Azure Storage para las garantías de confidencialidad.</t>
+          <t xml:space="preserve">Considere deshabilitar el acceso HTTP/80 desprotegido a la cuenta de almacenamiento, de modo que todas las transferencias de datos estén cifradas, protegidas por integridad y el servidor esté autenticado. </t>
         </is>
       </c>
       <c r="E38" s="22" t="inlineStr">
@@ -2605,7 +2597,7 @@
       <c r="G38" s="22" t="n"/>
       <c r="H38" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="I38" s="16" t="n"/>
@@ -2613,7 +2605,7 @@
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>3d90cae2-cc88-4137-86f7-c0cbafe61464</t>
+          <t>e7a8dc4a-20e2-47c3-b297-11b1352beee0</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2629,18 +2621,22 @@
       </c>
       <c r="B39" s="22" t="inlineStr">
         <is>
-          <t>Confidencialidad y cifrado</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>Determine qué cifrado de plataforma se debe utilizar.</t>
-        </is>
-      </c>
-      <c r="D39" s="22" t="n"/>
+          <t>Al aplicar HTTPS (deshabilitar HTTP), compruebe que no usa dominios personalizados (CNAME) para la cuenta de almacenamiento.</t>
+        </is>
+      </c>
+      <c r="D39" s="22" t="inlineStr">
+        <is>
+          <t>Al configurar un dominio personalizado (nombre de host) en una cuenta de almacenamiento, compruebe si necesita TLS/HTTPS; si es así, es posible que tenga que poner Azure CDN delante de su cuenta de almacenamiento.</t>
+        </is>
+      </c>
       <c r="E39" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2651,7 +2647,7 @@
       <c r="G39" s="22" t="n"/>
       <c r="H39" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/customer-managed-keys-overview?toc=%2Fazure%2Fstorage%2Fblobs%2Ftoc.json&amp;bc=%2Fazure%2Fstorage%2Fblobs%2Fbreadcrumb%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/storage-custom-domain-name</t>
         </is>
       </c>
       <c r="I39" s="16" t="n"/>
@@ -2659,7 +2655,7 @@
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>8dd457e9-2713-48b8-8110-2cac6eae01e6</t>
+          <t>79b588de-fc49-472c-b3cd-21bf77036e5e</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2675,15 +2671,19 @@
       </c>
       <c r="B40" s="22" t="inlineStr">
         <is>
-          <t>Confidencialidad y cifrado</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>Determine qué / si se debe usar el cifrado del lado del cliente.</t>
-        </is>
-      </c>
-      <c r="D40" s="22" t="n"/>
+          <t>Limitar los tokens de firma de acceso compartido (SAS) solo a las conexiones HTTPS</t>
+        </is>
+      </c>
+      <c r="D40" s="22" t="inlineStr">
+        <is>
+          <t>Requerir HTTPS cuando un cliente usa un token SAS para obtener acceso a los datos de blobs ayuda a minimizar el riesgo de pérdida de credenciales.</t>
+        </is>
+      </c>
       <c r="E40" s="22" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -2697,7 +2697,7 @@
       <c r="G40" s="22" t="n"/>
       <c r="H40" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/encryption-customer-provided-keys</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-sas-overview</t>
         </is>
       </c>
       <c r="I40" s="16" t="n"/>
@@ -2705,7 +2705,7 @@
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>e842e52f-4721-4d92-ac1b-1cd521e54a29</t>
+          <t>6b4bed3d-5035-447c-8347-dc56028a71ff</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2721,17 +2721,17 @@
       </c>
       <c r="B41" s="22" t="inlineStr">
         <is>
-          <t>Gestión de identidades y accesos</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Considere si el acceso público a blobs es necesario o si se puede deshabilitar para determinadas cuentas de almacenamiento. </t>
+          <t>Evite políticas CORS excesivamente amplias</t>
         </is>
       </c>
       <c r="D41" s="22" t="inlineStr">
         <is>
-          <t>Aproveche el Explorador de gráficos de recursos (recursos | donde tipo == 'microsoft.storage/storageaccounts' | donde propiedades['allowBlobPublicAccess'] == true) para buscar cuentas de almacenamiento que permitan el acceso anónimo a blobs.</t>
+          <t>El almacenamiento admite CORS (Cross-Origin Resource Sharing), es decir, una característica HTTP que permite a las aplicaciones web de un dominio diferente aflojar la directiva del mismo origen. Al habilitar CORS, mantenga CorsRules con el mínimo privilegio.</t>
         </is>
       </c>
       <c r="E41" s="22" t="inlineStr">
@@ -2747,7 +2747,7 @@
       <c r="G41" s="22" t="n"/>
       <c r="H41" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/anonymous-read-access-configure?tabs=portal#allow-or-disallow-public-read-access-for-a-storage-account</t>
+          <t>https://learn.microsoft.com/rest/api/storageservices/cross-origin-resource-sharing--cors--support-for-the-azure-storage-services</t>
         </is>
       </c>
       <c r="I41" s="16" t="n"/>
@@ -2755,7 +2755,7 @@
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>659ae558-b937-4d49-a5e1-112dbd7ba012</t>
+          <t>cef39812-bd46-43cb-aac8-ac199ebb91a3</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -11600,7 +11600,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="H87:I308 A87:E297 G87:G297 I8:J57 J87:P297 I59:J86 L59:P86 L8:P57">
+  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
     <cfRule type="expression" priority="57" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11684,7 +11684,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G59:H86 G8:H57">
+  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
     <cfRule type="expression" priority="9" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11741,43 +11741,43 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="13">
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F42" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F42" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
